--- a/Datas.xlsx
+++ b/Datas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>DATASET</t>
   </si>
@@ -109,19 +109,25 @@
     <t>QUARTILE DEVIATION</t>
   </si>
   <si>
+    <t>12.0 %</t>
+  </si>
+  <si>
+    <t>11.0 %</t>
+  </si>
+  <si>
+    <t>18.0 %</t>
+  </si>
+  <si>
     <t>13.0 %</t>
   </si>
   <si>
-    <t>12.0 %</t>
-  </si>
-  <si>
-    <t>18.0 %</t>
+    <t>16.0 %</t>
   </si>
   <si>
     <t>14.0 %</t>
   </si>
   <si>
-    <t>17.0 %</t>
+    <t>3.0 %</t>
   </si>
   <si>
     <t>1.0 %</t>
@@ -591,49 +597,49 @@
         <v>12.78</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="E2">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="H2" t="s">
         <v>31</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
       <c r="K2">
-        <v>201.5</v>
+        <v>174</v>
       </c>
       <c r="L2">
-        <v>4732.6</v>
+        <v>4819.22</v>
       </c>
       <c r="M2">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="N2">
-        <v>34.58</v>
+        <v>34.54</v>
       </c>
       <c r="P2">
         <v>13.44</v>
       </c>
       <c r="Q2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R2">
         <v>49.39</v>
@@ -645,22 +651,22 @@
         <v>6</v>
       </c>
       <c r="U2">
-        <v>147.19</v>
+        <v>155.8</v>
       </c>
       <c r="V2">
-        <v>12.13</v>
+        <v>12.48</v>
       </c>
       <c r="W2">
         <v>37.475</v>
       </c>
       <c r="AC2">
-        <v>34.56</v>
+        <v>34.69</v>
       </c>
       <c r="AD2">
-        <v>20.12</v>
+        <v>20.38</v>
       </c>
       <c r="AE2">
-        <v>10.06</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -668,43 +674,40 @@
         <v>13.17</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="E3">
-        <v>24.5</v>
+        <v>23.5</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
       </c>
       <c r="I3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3">
-        <v>258</v>
+        <v>225.5</v>
       </c>
       <c r="L3">
-        <v>2053.04</v>
+        <v>2168.34</v>
       </c>
       <c r="M3">
-        <v>21.5</v>
-      </c>
-      <c r="X3">
-        <v>24.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -712,16 +715,16 @@
         <v>13.44</v>
       </c>
       <c r="B4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>24.5</v>
+        <v>23.5</v>
       </c>
       <c r="E4">
-        <v>30.5</v>
+        <v>29.5</v>
       </c>
       <c r="F4">
         <v>12</v>
@@ -730,22 +733,25 @@
         <v>0.12</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J4">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K4">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L4">
-        <v>601.52</v>
+        <v>775.7</v>
       </c>
       <c r="M4">
-        <v>27.5</v>
+        <v>26.5</v>
+      </c>
+      <c r="X4">
+        <v>24.5</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -753,16 +759,16 @@
         <v>13.44</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>30.5</v>
+        <v>29.5</v>
       </c>
       <c r="E5">
-        <v>36.5</v>
+        <v>35.5</v>
       </c>
       <c r="F5">
         <v>18</v>
@@ -774,25 +780,25 @@
         <v>33</v>
       </c>
       <c r="I5">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J5">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K5">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="L5">
-        <v>21</v>
+        <v>74.91</v>
       </c>
       <c r="M5">
-        <v>33.5</v>
+        <v>32.5</v>
       </c>
       <c r="O5">
-        <v>34.83</v>
+        <v>34.5</v>
       </c>
       <c r="Y5">
-        <v>34.83</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -800,40 +806,40 @@
         <v>13.44</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>36.5</v>
+        <v>35.5</v>
       </c>
       <c r="E6">
-        <v>42.5</v>
+        <v>41.5</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
       </c>
       <c r="I6">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J6">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>553</v>
+        <v>500.5</v>
       </c>
       <c r="L6">
-        <v>338.89</v>
+        <v>203.86</v>
       </c>
       <c r="M6">
-        <v>39.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -841,49 +847,49 @@
         <v>13.48</v>
       </c>
       <c r="B7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>42.5</v>
+        <v>41.5</v>
       </c>
       <c r="E7">
-        <v>48.5</v>
+        <v>47.5</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
       </c>
       <c r="I7">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>773.5</v>
+        <v>712</v>
       </c>
       <c r="L7">
-        <v>2027.19</v>
+        <v>1587.23</v>
       </c>
       <c r="M7">
-        <v>45.5</v>
+        <v>44.5</v>
       </c>
       <c r="Z7">
-        <v>44.62</v>
+        <v>44.88</v>
       </c>
       <c r="AA7">
-        <v>46.38</v>
+        <v>46.75</v>
       </c>
       <c r="AB7">
-        <v>43.21</v>
+        <v>43.38</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -891,40 +897,40 @@
         <v>14.19</v>
       </c>
       <c r="B8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>48.5</v>
+        <v>47.5</v>
       </c>
       <c r="E8">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>618</v>
+        <v>707</v>
       </c>
       <c r="L8">
-        <v>3435.44</v>
+        <v>3566.1</v>
       </c>
       <c r="M8">
-        <v>51.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -932,40 +938,40 @@
         <v>15.1</v>
       </c>
       <c r="B9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>54.5</v>
+        <v>53.5</v>
       </c>
       <c r="E9">
-        <v>60.5</v>
+        <v>59.5</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9">
         <v>99</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K9">
-        <v>57.5</v>
+        <v>169.5</v>
       </c>
       <c r="L9">
-        <v>525.33</v>
+        <v>1446.72</v>
       </c>
       <c r="M9">
-        <v>57.5</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -973,16 +979,16 @@
         <v>15.18</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10">
-        <v>60.5</v>
+        <v>59.5</v>
       </c>
       <c r="E10">
-        <v>66.5</v>
+        <v>65.5</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -991,7 +997,7 @@
         <v>0.01</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I10">
         <v>100</v>
@@ -1000,13 +1006,13 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>63.5</v>
+        <v>62.5</v>
       </c>
       <c r="L10">
-        <v>836.37</v>
+        <v>781.76</v>
       </c>
       <c r="M10">
-        <v>63.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="11" spans="1:31">

--- a/Datas.xlsx
+++ b/Datas.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>DATASET</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Unimodal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -138,12 +141,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -179,7 +188,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,6 +206,80 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="1819275"/>
+          <a:ext cx="7067550" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>DATASETS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,7 +572,7 @@
   <dimension ref="A1:AE65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +585,8 @@
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
@@ -636,10 +722,10 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>7.8125E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="H2" s="2">
-        <v>7.8125E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -713,10 +799,10 @@
         <v>6</v>
       </c>
       <c r="G3">
-        <v>9.375E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H3" s="2">
-        <v>9.375E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I3">
         <v>11</v>
@@ -754,10 +840,10 @@
         <v>14</v>
       </c>
       <c r="G4">
-        <v>0.21875</v>
+        <v>0.219</v>
       </c>
       <c r="H4" s="2">
-        <v>0.21875</v>
+        <v>0.219</v>
       </c>
       <c r="I4">
         <v>25</v>
@@ -776,6 +862,9 @@
       </c>
       <c r="X4">
         <v>20.29</v>
+      </c>
+      <c r="AA4">
+        <v>21.43</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -798,10 +887,10 @@
         <v>25</v>
       </c>
       <c r="G5">
-        <v>0.390625</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="H5" s="2">
-        <v>0.390625</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="I5">
         <v>50</v>
@@ -826,9 +915,6 @@
       </c>
       <c r="Z5">
         <v>28.1</v>
-      </c>
-      <c r="AB5">
-        <v>27.59</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -851,10 +937,10 @@
         <v>6</v>
       </c>
       <c r="G6">
-        <v>9.375E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H6" s="2">
-        <v>9.375E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="I6">
         <v>56</v>
@@ -870,9 +956,6 @@
       </c>
       <c r="M6">
         <v>31</v>
-      </c>
-      <c r="AA6">
-        <v>29.5</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -895,10 +978,10 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>6.25E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H7" s="2">
-        <v>6.25E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="I7">
         <v>60</v>
@@ -936,10 +1019,10 @@
         <v>4</v>
       </c>
       <c r="G8">
-        <v>6.25E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H8" s="2">
-        <v>6.25E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="I8">
         <v>64</v>
@@ -955,58 +1038,31 @@
       </c>
       <c r="M8">
         <v>41</v>
+      </c>
+      <c r="AB8">
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15.89</v>
       </c>
-      <c r="B9" s="3">
-        <f>SUM(B2:B8)</f>
-        <v>168</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" ref="C9:M9" si="0">SUM(C2:C8)</f>
-        <v>196</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>164.5</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>199.5</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
+      <c r="F9">
         <v>64</v>
       </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="0"/>
-        <v>271</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="0"/>
-        <v>241</v>
-      </c>
-      <c r="K9" s="3">
-        <f>SUM(K2:K8)</f>
+      <c r="H9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K9">
         <v>1589</v>
       </c>
-      <c r="L9" s="3">
-        <f t="shared" si="0"/>
+      <c r="L9">
         <v>3437.1</v>
       </c>
-      <c r="M9" s="3">
-        <f t="shared" si="0"/>
+      <c r="M9">
         <v>182</v>
       </c>
     </row>
@@ -1024,103 +1080,298 @@
       <c r="A12">
         <v>18.48</v>
       </c>
+      <c r="C12" s="3">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="D12" s="3">
+        <v>16.09</v>
+      </c>
+      <c r="E12" s="3">
+        <v>21</v>
+      </c>
+      <c r="F12" s="3">
+        <v>23.42</v>
+      </c>
+      <c r="G12" s="3">
+        <v>25.12</v>
+      </c>
+      <c r="H12" s="3">
+        <v>27.13</v>
+      </c>
+      <c r="I12" s="3">
+        <v>28.42</v>
+      </c>
+      <c r="J12" s="3">
+        <v>34.42</v>
+      </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18.52</v>
       </c>
+      <c r="C13" s="3">
+        <v>9.83</v>
+      </c>
+      <c r="D13" s="3">
+        <v>17.34</v>
+      </c>
+      <c r="E13" s="3">
+        <v>21.17</v>
+      </c>
+      <c r="F13" s="3">
+        <v>23.7</v>
+      </c>
+      <c r="G13" s="3">
+        <v>25.21</v>
+      </c>
+      <c r="H13" s="3">
+        <v>27.33</v>
+      </c>
+      <c r="I13" s="3">
+        <v>28.48</v>
+      </c>
+      <c r="J13" s="3">
+        <v>35.89</v>
+      </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18.670000000000002</v>
       </c>
+      <c r="C14" s="3">
+        <v>10.08</v>
+      </c>
+      <c r="D14" s="3">
+        <v>18.48</v>
+      </c>
+      <c r="E14" s="3">
+        <v>21.83</v>
+      </c>
+      <c r="F14" s="3">
+        <v>23.8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>25.64</v>
+      </c>
+      <c r="H14" s="3">
+        <v>27.42</v>
+      </c>
+      <c r="I14" s="3">
+        <v>29</v>
+      </c>
+      <c r="J14" s="3">
+        <v>36.700000000000003</v>
+      </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>19.05</v>
       </c>
+      <c r="C15" s="3">
+        <v>11.32</v>
+      </c>
+      <c r="D15" s="3">
+        <v>18.52</v>
+      </c>
+      <c r="E15" s="3">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3">
+        <v>24.31</v>
+      </c>
+      <c r="G15" s="3">
+        <v>26.01</v>
+      </c>
+      <c r="H15" s="3">
+        <v>27.53</v>
+      </c>
+      <c r="I15" s="3">
+        <v>30.32</v>
+      </c>
+      <c r="J15" s="3">
+        <v>38.450000000000003</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>19.13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <v>13.44</v>
+      </c>
+      <c r="D16" s="3">
+        <v>18.670000000000002</v>
+      </c>
+      <c r="E16" s="3">
+        <v>22.61</v>
+      </c>
+      <c r="F16" s="3">
+        <v>24.62</v>
+      </c>
+      <c r="G16" s="3">
+        <v>26.17</v>
+      </c>
+      <c r="H16" s="3">
+        <v>27.91</v>
+      </c>
+      <c r="I16" s="3">
+        <v>31.12</v>
+      </c>
+      <c r="J16" s="3">
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20.14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C17" s="3">
+        <v>13.52</v>
+      </c>
+      <c r="D17" s="3">
+        <v>19.05</v>
+      </c>
+      <c r="E17" s="3">
+        <v>22.89</v>
+      </c>
+      <c r="F17" s="3">
+        <v>24.73</v>
+      </c>
+      <c r="G17" s="3">
+        <v>26.21</v>
+      </c>
+      <c r="H17" s="3">
+        <v>28.09</v>
+      </c>
+      <c r="I17" s="3">
+        <v>32.33</v>
+      </c>
+      <c r="J17" s="3">
+        <v>40.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C18" s="3">
+        <v>14.12</v>
+      </c>
+      <c r="D18" s="3">
+        <v>19.13</v>
+      </c>
+      <c r="E18" s="3">
+        <v>23.08</v>
+      </c>
+      <c r="F18" s="3">
+        <v>24.88</v>
+      </c>
+      <c r="G18" s="3">
+        <v>26.41</v>
+      </c>
+      <c r="H18" s="3">
+        <v>28.18</v>
+      </c>
+      <c r="I18" s="3">
+        <v>32.33</v>
+      </c>
+      <c r="J18" s="3">
+        <v>41.76</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>21.17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
+        <v>15.89</v>
+      </c>
+      <c r="D19" s="3">
+        <v>20.14</v>
+      </c>
+      <c r="E19" s="3">
+        <v>23.38</v>
+      </c>
+      <c r="F19" s="3">
+        <v>25.08</v>
+      </c>
+      <c r="G19" s="3">
+        <v>26.87</v>
+      </c>
+      <c r="H19" s="3">
+        <v>28.31</v>
+      </c>
+      <c r="I19" s="3">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="J19" s="3">
+        <v>42.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21.83</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22.61</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22.89</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23.08</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23.38</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23.42</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23.7</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23.8</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24.31</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24.62</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>24.73</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>24.88</v>
       </c>
@@ -1292,5 +1543,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>